--- a/results/mp/logistic/corona/confidence/168/stop-words-desired-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-desired-0.5/avg_0.004_scores.xlsx
@@ -40,30 +40,30 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -76,6 +76,9 @@
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -85,73 +88,79 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>better</t>
+    <t>help</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>please</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>hope</t>
@@ -160,19 +169,10 @@
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
   <si>
     <t>corona</t>
@@ -533,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +541,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8421052631578947</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8253424657534246</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9666666666666667</v>
+        <v>0.95</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7567567567567568</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5767195767195767</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9152542372881356</v>
+        <v>0.8981723237597912</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>344</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>344</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5484496124031008</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="C7">
-        <v>283</v>
+        <v>120</v>
       </c>
       <c r="D7">
-        <v>283</v>
+        <v>120</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>233</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.9033942558746736</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L7">
-        <v>346</v>
+        <v>100</v>
       </c>
       <c r="M7">
-        <v>346</v>
+        <v>100</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5294117647058824</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8928571428571429</v>
+        <v>0.890625</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M8">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,28 +902,28 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4745762711864407</v>
+        <v>0.5658914728682171</v>
       </c>
       <c r="C9">
+        <v>292</v>
+      </c>
+      <c r="D9">
+        <v>292</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>224</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D9">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>31</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K9">
         <v>0.8888888888888888</v>
@@ -952,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3333333333333333</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8867924528301887</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L10">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1002,13 +1002,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3154362416107382</v>
+        <v>0.3422818791946309</v>
       </c>
       <c r="C11">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8802816901408451</v>
+        <v>0.8661971830985915</v>
       </c>
       <c r="L11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1052,13 +1052,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1666666666666667</v>
+        <v>0.1468253968253968</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1070,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8793103448275862</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L12">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M12">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.08579088471849866</v>
+        <v>0.08310991957104558</v>
       </c>
       <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>342</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13">
-        <v>32</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>341</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K13">
-        <v>0.8787878787878788</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1152,63 +1152,87 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008704061895551257</v>
+        <v>0.01360103626943005</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E14">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="F14">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>3075</v>
+        <v>3046</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.8671875</v>
+        <v>0.8553459119496856</v>
       </c>
       <c r="L14">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="M14">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.01224682053697598</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>0.43</v>
+      </c>
+      <c r="F15">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2097</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.8604651162790697</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1220,21 +1244,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.85625</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L16">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="M16">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1246,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.8414634146341463</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L17">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="M17">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1272,21 +1296,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.8297872340425532</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1298,21 +1322,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.825</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1324,21 +1348,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L20">
         <v>38</v>
       </c>
-      <c r="K20">
-        <v>0.8095238095238095</v>
-      </c>
-      <c r="L20">
-        <v>51</v>
-      </c>
       <c r="M20">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1350,21 +1374,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.78</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1376,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.7708333333333334</v>
+        <v>0.7323529411764705</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1402,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.7428571428571429</v>
+        <v>0.725</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1428,21 +1452,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.7235294117647059</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L24">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="M24">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1454,21 +1478,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.723404255319149</v>
+        <v>0.7</v>
       </c>
       <c r="L25">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1480,21 +1504,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.7220338983050848</v>
+        <v>0.6861924686192469</v>
       </c>
       <c r="L26">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="M26">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1506,21 +1530,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.7071129707112971</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L27">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="M27">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1532,15 +1556,15 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.676923076923077</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L28">
         <v>44</v>
@@ -1558,21 +1582,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.6741573033707865</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L29">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1584,21 +1608,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.6571428571428571</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1610,21 +1634,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.5616438356164384</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1636,21 +1660,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1662,21 +1686,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.5294117647058824</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1688,59 +1712,33 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34">
+        <v>0.01631628490743646</v>
+      </c>
+      <c r="L34">
         <v>52</v>
       </c>
-      <c r="K34">
-        <v>0.5</v>
-      </c>
-      <c r="L34">
-        <v>39</v>
-      </c>
       <c r="M34">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K35">
-        <v>0.01003449357165256</v>
-      </c>
-      <c r="L35">
-        <v>32</v>
-      </c>
-      <c r="M35">
-        <v>44</v>
-      </c>
-      <c r="N35">
-        <v>0.73</v>
-      </c>
-      <c r="O35">
-        <v>0.27</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>3157</v>
+        <v>3135</v>
       </c>
     </row>
   </sheetData>
